--- a/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlThreeLaqhcp.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlThreeLaqhcp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-ST1\St1Share\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKL_SVN\Documents\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,51 +20,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>讀取Key條件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他ORDER條件</t>
+  </si>
+  <si>
+    <t>Uni</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>其他ORDER條件</t>
-  </si>
-  <si>
-    <t>Uni</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Index1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Index2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Index3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Table</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PrimaryKey</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FunNm</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForeignKey1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ForeignKey1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>欄位名稱</t>
   </si>
   <si>
@@ -84,274 +84,286 @@
   </si>
   <si>
     <t>V</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>建檔日期時間</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>CreateEmpNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>建檔人員</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>最後更新日期時間</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>最後更新人員</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>HlThreeLaqhcp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DECIMALD</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Key Id</t>
   </si>
   <si>
-    <t>BranchNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>UpNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CalDate,EmpNo,BranchNo,DeptNo,UnitNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>房貸排行邏輯檔</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>CalDate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>EmpNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeptNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>UnitName</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BranchName</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>DeptName</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChiefName</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>HlEmpName</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>MType</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>GoalNum</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>GoalAmt</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>ActNum</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>ActAmt</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>ActRate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>TGoalNum</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>TGoalAmt</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>TActNum</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>TActAmt</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>TActRate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>ProcessDate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>年月日</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>員工代號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>單位代號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>區部代號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>部室代號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>單位中文</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>區部中文</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>部室中文</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>員工姓名</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>專員姓名</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>處長主任別</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>目標件數</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>目標金額</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>達成件數</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>達成金額</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>本月達成率</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>累計目標件數</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>累計目標金額</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>累計達成件數</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>累計達成金額</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>累計達成率</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>UpdateIdentifier</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>更新日期</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>NVARCHAR2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitCode</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistCode</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptCode</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistName</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmpName</t>
+  </si>
+  <si>
+    <t>DepartOfficer</t>
+  </si>
+  <si>
+    <t>DirectorCode</t>
+  </si>
+  <si>
+    <t>CalDate,DeptCode,DistCode,UnitCode</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>findCalDate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CalDate =</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -435,7 +447,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,6 +457,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,128 +528,145 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1"/>
     <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2 2 2" xfId="4"/>
+    <cellStyle name="一般 2 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -935,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -959,7 +994,7 @@
         <v>28</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -984,7 +1019,7 @@
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="12" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -1065,16 +1100,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="28">
-        <v>10</v>
+        <v>48</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="35">
+        <v>8</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="19"/>
@@ -1084,13 +1119,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E10" s="28">
         <v>6</v>
@@ -1101,14 +1136,14 @@
       <c r="A11" s="24">
         <v>3</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>37</v>
+      <c r="B11" s="36" t="s">
+        <v>74</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E11" s="28">
         <v>6</v>
@@ -1119,14 +1154,14 @@
       <c r="A12" s="24">
         <v>4</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>31</v>
+      <c r="B12" s="36" t="s">
+        <v>75</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E12" s="28">
         <v>6</v>
@@ -1137,14 +1172,14 @@
       <c r="A13" s="24">
         <v>5</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>38</v>
+      <c r="B13" s="36" t="s">
+        <v>76</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E13" s="28">
         <v>6</v>
@@ -1157,13 +1192,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E14" s="28">
         <v>20</v>
@@ -1175,14 +1210,14 @@
       <c r="A15" s="24">
         <v>7</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>40</v>
+      <c r="B15" s="36" t="s">
+        <v>77</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E15" s="28">
         <v>20</v>
@@ -1194,13 +1229,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E16" s="28">
         <v>20</v>
@@ -1211,14 +1246,14 @@
       <c r="A17" s="24">
         <v>9</v>
       </c>
-      <c r="B17" s="26" t="s">
-        <v>42</v>
+      <c r="B17" s="36" t="s">
+        <v>78</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E17" s="28">
         <v>15</v>
@@ -1229,14 +1264,14 @@
       <c r="A18" s="24">
         <v>10</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>43</v>
+      <c r="B18" s="36" t="s">
+        <v>79</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E18" s="28">
         <v>15</v>
@@ -1247,14 +1282,14 @@
       <c r="A19" s="24">
         <v>11</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>44</v>
+      <c r="B19" s="36" t="s">
+        <v>80</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E19" s="28">
         <v>1</v>
@@ -1266,13 +1301,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E20" s="28">
         <v>14</v>
@@ -1286,13 +1321,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E21" s="28">
         <v>14</v>
@@ -1306,13 +1341,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E22" s="28">
         <v>14</v>
@@ -1326,13 +1361,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E23" s="28">
         <v>14</v>
@@ -1346,13 +1381,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E24" s="28">
         <v>14</v>
@@ -1365,14 +1400,14 @@
       <c r="A25" s="24">
         <v>17</v>
       </c>
-      <c r="B25" s="26" t="s">
-        <v>50</v>
+      <c r="B25" s="37" t="s">
+        <v>42</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E25" s="28">
         <v>14</v>
@@ -1385,14 +1420,14 @@
       <c r="A26" s="24">
         <v>18</v>
       </c>
-      <c r="B26" s="26" t="s">
-        <v>51</v>
+      <c r="B26" s="37" t="s">
+        <v>43</v>
       </c>
       <c r="C26" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>73</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>81</v>
       </c>
       <c r="E26" s="28">
         <v>14</v>
@@ -1406,13 +1441,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E27" s="28">
         <v>14</v>
@@ -1426,13 +1461,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E28" s="28">
         <v>14</v>
@@ -1446,13 +1481,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E29" s="28">
         <v>14</v>
@@ -1466,13 +1501,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E30" s="28">
         <v>7</v>
@@ -1484,10 +1519,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D31" s="26" t="s">
         <v>29</v>
@@ -1666,7 +1701,7 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1678,7 +1713,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1700,6 +1735,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
     <row r="3" spans="1:3">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
@@ -1713,7 +1756,7 @@
       <c r="A5" s="25"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
